--- a/dist/input.xlsx
+++ b/dist/input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dongxinyi\coding\GGTabulator\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dongxinyi\coding\GGTabulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5075C4FC-E895-4726-8127-27AFE1B9BBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD4AC37-F0F4-4205-83A3-2942B36FF364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -613,9 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -912,9 +910,6 @@
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18">
-        <v>13</v>
-      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">

--- a/dist/input.xlsx
+++ b/dist/input.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dongxinyi\coding\GGTabulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD4AC37-F0F4-4205-83A3-2942B36FF364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB42C26A-C9B2-40F9-941F-6B8CEFF5B018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5130" yWindow="2440" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="paid" sheetId="3" r:id="rId2"/>
+    <sheet name="symbol" sheetId="2" r:id="rId3"/>
+    <sheet name="常见问题汇总" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -31,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
-  <si>
-    <t>a盒</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="141">
   <si>
     <t>数量</t>
   </si>
@@ -177,13 +177,384 @@
   </si>
   <si>
     <t>kz</t>
+  </si>
+  <si>
+    <t>冰鹰北斗</t>
+  </si>
+  <si>
+    <t>北</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>明星昴流</t>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>真</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>岚</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>栗</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三毛缟斑</t>
+  </si>
+  <si>
+    <t>斑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>友</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫之创</t>
+  </si>
+  <si>
+    <t>创</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天城一彩</t>
+  </si>
+  <si>
+    <t>彩</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白鸟蓝良</t>
+  </si>
+  <si>
+    <t>良</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>风早巽</t>
+  </si>
+  <si>
+    <t>巽</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼濑真宵</t>
+  </si>
+  <si>
+    <t>宵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天祥院英智</t>
+  </si>
+  <si>
+    <t>英</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日日树涉</t>
+  </si>
+  <si>
+    <t>涉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>姬宫桃李</t>
+  </si>
+  <si>
+    <t>桃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏见弓弦</t>
+  </si>
+  <si>
+    <t>弓</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>千</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>翠</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>咪</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆先夏目</t>
+  </si>
+  <si>
+    <t>夏</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青叶纺</t>
+  </si>
+  <si>
+    <t>纺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>春川宙</t>
+  </si>
+  <si>
+    <t>宙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天城燐音</t>
+  </si>
+  <si>
+    <t>燐</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>椎名丹希</t>
+  </si>
+  <si>
+    <t>尼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HiMERU</t>
+  </si>
+  <si>
+    <t>hmr</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱河琥珀</t>
+  </si>
+  <si>
+    <t>琥珀</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>零</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>薰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>大神晃牙</t>
+  </si>
+  <si>
+    <t>晃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>多</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日向</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>裕太</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>敬</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神崎飒马</t>
+  </si>
+  <si>
+    <t>飒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱凪砂</t>
+  </si>
+  <si>
+    <t>ngs</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴日和</t>
+  </si>
+  <si>
+    <t>日和</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>涟纯</t>
+  </si>
+  <si>
+    <t>纯</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>七种茨</t>
+  </si>
+  <si>
+    <t>茨</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>已交</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双双</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：cn可重复</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：paid表可以清空或删除，不影响程序运行</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub地址：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Banny-D/GGTabulator</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Github下载：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Banny-D/GGTabulator/releases/download/Latest/GGT_latest.zip</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议先观看：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1bo4y1L7k7/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q1：运行之后没有程序框，而且也没有输出文件output.xlsx，我该怎么办？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 第一列不要出现空值</t>
+  </si>
+  <si>
+    <t>2. 第二列是调价，第三列是数量，两列的顺序不要弄反</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 第二、三列除了填写分盒名称的行可以为空以外，不要有任何空行，调价为0的地方就填写0，不要空着</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 检查cn列表的区域有没有空单元格且这个空格右边还写了cn。如果有，请删除空格并把右边的单元格都前移，直至中间没有任何空单元格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大多时候是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入表格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的格式问题。请按照说明严格遵守格式规则填写input表格，需要注意：</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何出现的无法解决的问题，可以将问题描述并附上你的input文件发送到：675386979@qq.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>或记事本打开README.md</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <name val="等线"/>
@@ -214,13 +585,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -237,6 +601,41 @@
     <font>
       <sz val="9"/>
       <color theme="4"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -310,12 +709,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,22 +725,38 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -615,17 +1033,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="2">
         <v>11.06</v>
@@ -634,9 +1052,9 @@
       <c r="F1" s="2"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -645,15 +1063,15 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="B3">
         <v>-5</v>
@@ -661,16 +1079,16 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>-4</v>
@@ -679,15 +1097,15 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
         <v>-5</v>
@@ -696,15 +1114,15 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>-4</v>
@@ -713,15 +1131,15 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -730,15 +1148,15 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -747,15 +1165,15 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="B9">
         <v>-2</v>
@@ -764,15 +1182,15 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -781,15 +1199,15 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B11">
         <v>-6</v>
@@ -798,15 +1216,15 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -815,15 +1233,15 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="B13">
         <v>-6</v>
@@ -832,15 +1250,15 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B14">
         <v>-6</v>
@@ -848,16 +1266,16 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
+      <c r="D14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B15">
         <v>-6</v>
@@ -865,16 +1283,16 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -883,15 +1301,15 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -900,20 +1318,20 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -922,18 +1340,18 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B20">
         <v>-6</v>
@@ -942,18 +1360,18 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B21">
         <v>-6</v>
@@ -962,18 +1380,18 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B22">
         <v>-6</v>
@@ -981,19 +1399,19 @@
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>7</v>
+      <c r="D22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1002,18 +1420,18 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>8</v>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B24">
         <v>-2</v>
@@ -1022,18 +1440,18 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B25">
         <v>-6</v>
@@ -1042,18 +1460,18 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B26">
         <v>-6</v>
@@ -1062,18 +1480,18 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -1082,18 +1500,18 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
         <v>44</v>
       </c>
-      <c r="F27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>9</v>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1101,19 +1519,19 @@
       <c r="C28">
         <v>3</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>10</v>
+      <c r="D28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B29">
         <v>-6</v>
@@ -1121,19 +1539,19 @@
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="D29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -1142,18 +1560,18 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B31">
         <v>9</v>
@@ -1162,18 +1580,18 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B32">
         <v>10</v>
@@ -1182,18 +1600,18 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
         <v>41</v>
       </c>
-      <c r="E32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>18</v>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -1201,19 +1619,19 @@
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>19</v>
+      <c r="D33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -1222,18 +1640,18 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B35">
         <v>-5</v>
@@ -1242,13 +1660,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1256,4 +1674,629 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CDCFA7-50F2-423B-9E07-5FFB9960DDD6}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="7">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A14258C-BD4A-4525-8725-D4DDBE92F175}">
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB491524-32D6-4DEB-96E8-1CFE7A62AA18}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="10.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="10">
+        <v>45254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="11"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{628BE458-6D50-4207-B33C-CB65AF92DEF9}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{E73ECC35-C47D-447B-ACAC-2DEE9C66AC1F}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{DEEC3768-B09F-4B41-A4B0-83BF6E3A47AA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>